--- a/natmiOut/OldD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H2">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I2">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J2">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>842.4660380021913</v>
+        <v>1366.031107190672</v>
       </c>
       <c r="R2">
-        <v>842.4660380021913</v>
+        <v>12294.27996471605</v>
       </c>
       <c r="S2">
-        <v>0.005969560154199508</v>
+        <v>0.008349195893633667</v>
       </c>
       <c r="T2">
-        <v>0.005969560154199508</v>
+        <v>0.009555832422209788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H3">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I3">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J3">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>943.5341630149348</v>
+        <v>1461.85004402238</v>
       </c>
       <c r="R3">
-        <v>943.5341630149348</v>
+        <v>13156.65039620142</v>
       </c>
       <c r="S3">
-        <v>0.006685710390197696</v>
+        <v>0.008934842201185851</v>
       </c>
       <c r="T3">
-        <v>0.006685710390197696</v>
+        <v>0.01022611708733806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H4">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I4">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J4">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>485.4228136936206</v>
+        <v>734.0426645504239</v>
       </c>
       <c r="R4">
-        <v>485.4228136936206</v>
+        <v>6606.383980953815</v>
       </c>
       <c r="S4">
-        <v>0.003439617214050012</v>
+        <v>0.004486476163211465</v>
       </c>
       <c r="T4">
-        <v>0.003439617214050012</v>
+        <v>0.005134867468444207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H5">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I5">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J5">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>577.5166464525795</v>
+        <v>838.6485707856821</v>
       </c>
       <c r="R5">
-        <v>577.5166464525795</v>
+        <v>7547.837137071138</v>
       </c>
       <c r="S5">
-        <v>0.004092177257644273</v>
+        <v>0.0051258285163108</v>
       </c>
       <c r="T5">
-        <v>0.004092177257644273</v>
+        <v>0.005866619845894271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.80818443843377</v>
+        <v>9.883085999999999</v>
       </c>
       <c r="H6">
-        <v>6.80818443843377</v>
+        <v>29.649258</v>
       </c>
       <c r="I6">
-        <v>0.0282619300198876</v>
+        <v>0.03712034544454516</v>
       </c>
       <c r="J6">
-        <v>0.0282619300198876</v>
+        <v>0.03858449594745095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1139.581368045179</v>
+        <v>1672.772547850713</v>
       </c>
       <c r="R6">
-        <v>1139.581368045179</v>
+        <v>10036.63528710428</v>
       </c>
       <c r="S6">
-        <v>0.008074865003796115</v>
+        <v>0.01022400267020337</v>
       </c>
       <c r="T6">
-        <v>0.008074865003796115</v>
+        <v>0.007801059123564625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H7">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I7">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J7">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>14768.91179446531</v>
+        <v>17436.77189916612</v>
       </c>
       <c r="R7">
-        <v>14768.91179446531</v>
+        <v>156930.9470924951</v>
       </c>
       <c r="S7">
-        <v>0.1046498059176338</v>
+        <v>0.1065737255706755</v>
       </c>
       <c r="T7">
-        <v>0.1046498059176338</v>
+        <v>0.1219758974562435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H8">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I8">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J8">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>16540.69386782329</v>
+        <v>18659.85747632486</v>
       </c>
       <c r="R8">
-        <v>16540.69386782329</v>
+        <v>167938.7172869237</v>
       </c>
       <c r="S8">
-        <v>0.1172043294116898</v>
+        <v>0.1140492369441884</v>
       </c>
       <c r="T8">
-        <v>0.1172043294116898</v>
+        <v>0.1305317793478257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H9">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I9">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J9">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>8509.739734391052</v>
+        <v>9369.724041163661</v>
       </c>
       <c r="R9">
-        <v>8509.739734391052</v>
+        <v>84327.51637047295</v>
       </c>
       <c r="S9">
-        <v>0.06029845827553346</v>
+        <v>0.05726784776508382</v>
       </c>
       <c r="T9">
-        <v>0.06029845827553346</v>
+        <v>0.0655442707771462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H10">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I10">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J10">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>10124.19732849975</v>
+        <v>10704.97132559842</v>
       </c>
       <c r="R10">
-        <v>10124.19732849975</v>
+        <v>96344.7419303858</v>
       </c>
       <c r="S10">
-        <v>0.07173820930370609</v>
+        <v>0.0654288926238025</v>
       </c>
       <c r="T10">
-        <v>0.07173820930370609</v>
+        <v>0.07488476033489117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>119.351369569889</v>
+        <v>126.153142</v>
       </c>
       <c r="H11">
-        <v>119.351369569889</v>
+        <v>378.459426</v>
       </c>
       <c r="I11">
-        <v>0.4954478077180193</v>
+        <v>0.473824492669067</v>
       </c>
       <c r="J11">
-        <v>0.4954478077180193</v>
+        <v>0.4925137144670405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>19977.51357097623</v>
+        <v>21352.18824997706</v>
       </c>
       <c r="R11">
-        <v>19977.51357097623</v>
+        <v>128113.1294998624</v>
       </c>
       <c r="S11">
-        <v>0.1415570048094561</v>
+        <v>0.1305047897653168</v>
       </c>
       <c r="T11">
-        <v>0.1415570048094561</v>
+        <v>0.09957700655093397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.1727298866434</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H12">
-        <v>50.1727298866434</v>
+        <v>164.283508</v>
       </c>
       <c r="I12">
-        <v>0.2082755239353131</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J12">
-        <v>0.2082755239353131</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>6208.530533446975</v>
+        <v>7569.038737037116</v>
       </c>
       <c r="R12">
-        <v>6208.530533446975</v>
+        <v>68121.34863333404</v>
       </c>
       <c r="S12">
-        <v>0.04399251105300896</v>
+        <v>0.04626204103945313</v>
       </c>
       <c r="T12">
-        <v>0.04399251105300896</v>
+        <v>0.05294789070879147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.1727298866434</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H13">
-        <v>50.1727298866434</v>
+        <v>164.283508</v>
       </c>
       <c r="I13">
-        <v>0.2082755239353131</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J13">
-        <v>0.2082755239353131</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>6953.349329451926</v>
+        <v>8099.961671956545</v>
       </c>
       <c r="R13">
-        <v>6953.349329451926</v>
+        <v>72899.6550476089</v>
       </c>
       <c r="S13">
-        <v>0.04927016072215615</v>
+        <v>0.0495070473681754</v>
       </c>
       <c r="T13">
-        <v>0.04927016072215615</v>
+        <v>0.05666186952559282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.1727298866434</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H14">
-        <v>50.1727298866434</v>
+        <v>164.283508</v>
       </c>
       <c r="I14">
-        <v>0.2082755239353131</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J14">
-        <v>0.2082755239353131</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>3577.310211335482</v>
+        <v>4067.255374620534</v>
       </c>
       <c r="R14">
-        <v>3577.310211335482</v>
+        <v>36605.29837158481</v>
       </c>
       <c r="S14">
-        <v>0.02534816542568303</v>
+        <v>0.02485910583835724</v>
       </c>
       <c r="T14">
-        <v>0.02534816542568303</v>
+        <v>0.02845177578579179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.1727298866434</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H15">
-        <v>50.1727298866434</v>
+        <v>164.283508</v>
       </c>
       <c r="I15">
-        <v>0.2082755239353131</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J15">
-        <v>0.2082755239353131</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>4255.993204874349</v>
+        <v>4646.866008851155</v>
       </c>
       <c r="R15">
-        <v>4255.993204874349</v>
+        <v>41821.79407966039</v>
       </c>
       <c r="S15">
-        <v>0.03015718890296168</v>
+        <v>0.02840169187593071</v>
       </c>
       <c r="T15">
-        <v>0.03015718890296168</v>
+        <v>0.03250634091368932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.1727298866434</v>
+        <v>54.76116933333333</v>
       </c>
       <c r="H16">
-        <v>50.1727298866434</v>
+        <v>164.283508</v>
       </c>
       <c r="I16">
-        <v>0.2082755239353131</v>
+        <v>0.2056800398782896</v>
       </c>
       <c r="J16">
-        <v>0.2082755239353131</v>
+        <v>0.2137927481577794</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>8398.113870125364</v>
+        <v>9268.661706374338</v>
       </c>
       <c r="R16">
-        <v>8398.113870125364</v>
+        <v>55611.97023824602</v>
       </c>
       <c r="S16">
-        <v>0.05950749783150332</v>
+        <v>0.05665015375637317</v>
       </c>
       <c r="T16">
-        <v>0.05950749783150332</v>
+        <v>0.043224871223914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.2600322054289</v>
+        <v>45.13783733333333</v>
       </c>
       <c r="H17">
-        <v>34.2600322054289</v>
+        <v>135.413512</v>
       </c>
       <c r="I17">
-        <v>0.1422192129817909</v>
+        <v>0.1695353166443174</v>
       </c>
       <c r="J17">
-        <v>0.1422192129817909</v>
+        <v>0.176222356222004</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>4239.443548414665</v>
+        <v>6238.910590138119</v>
       </c>
       <c r="R17">
-        <v>4239.443548414665</v>
+        <v>56150.19531124307</v>
       </c>
       <c r="S17">
-        <v>0.03003992106626443</v>
+        <v>0.03813228440094229</v>
       </c>
       <c r="T17">
-        <v>0.03003992106626443</v>
+        <v>0.04364321118507904</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.2600322054289</v>
+        <v>45.13783733333333</v>
       </c>
       <c r="H18">
-        <v>34.2600322054289</v>
+        <v>135.413512</v>
       </c>
       <c r="I18">
-        <v>0.1422192129817909</v>
+        <v>0.1695353166443174</v>
       </c>
       <c r="J18">
-        <v>0.1422192129817909</v>
+        <v>0.176222356222004</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>4748.036881804951</v>
+        <v>6676.532966808985</v>
       </c>
       <c r="R18">
-        <v>4748.036881804951</v>
+        <v>60088.79670128087</v>
       </c>
       <c r="S18">
-        <v>0.03364372034213537</v>
+        <v>0.04080703677739209</v>
       </c>
       <c r="T18">
-        <v>0.03364372034213537</v>
+        <v>0.0467045222150132</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.2600322054289</v>
+        <v>45.13783733333333</v>
       </c>
       <c r="H19">
-        <v>34.2600322054289</v>
+        <v>135.413512</v>
       </c>
       <c r="I19">
-        <v>0.1422192129817909</v>
+        <v>0.1695353166443174</v>
       </c>
       <c r="J19">
-        <v>0.1422192129817909</v>
+        <v>0.176222356222004</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>2442.736588701942</v>
+        <v>3352.505319512914</v>
       </c>
       <c r="R19">
-        <v>2442.736588701942</v>
+        <v>30172.54787561622</v>
       </c>
       <c r="S19">
-        <v>0.01730878438933869</v>
+        <v>0.02049054629848577</v>
       </c>
       <c r="T19">
-        <v>0.01730878438933869</v>
+        <v>0.02345186640274706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.2600322054289</v>
+        <v>45.13783733333333</v>
       </c>
       <c r="H20">
-        <v>34.2600322054289</v>
+        <v>135.413512</v>
       </c>
       <c r="I20">
-        <v>0.1422192129817909</v>
+        <v>0.1695353166443174</v>
       </c>
       <c r="J20">
-        <v>0.1422192129817909</v>
+        <v>0.176222356222004</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>2906.169638257979</v>
+        <v>3830.259371208204</v>
       </c>
       <c r="R20">
-        <v>2906.169638257979</v>
+        <v>34472.33434087384</v>
       </c>
       <c r="S20">
-        <v>0.02059258615935341</v>
+        <v>0.02341058387712079</v>
       </c>
       <c r="T20">
-        <v>0.02059258615935341</v>
+        <v>0.02679391156775128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.2600322054289</v>
+        <v>45.13783733333333</v>
       </c>
       <c r="H21">
-        <v>34.2600322054289</v>
+        <v>135.413512</v>
       </c>
       <c r="I21">
-        <v>0.1422192129817909</v>
+        <v>0.1695353166443174</v>
       </c>
       <c r="J21">
-        <v>0.1422192129817909</v>
+        <v>0.176222356222004</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>5734.582357894555</v>
+        <v>7639.854106354132</v>
       </c>
       <c r="R21">
-        <v>5734.582357894555</v>
+        <v>45839.1246381248</v>
       </c>
       <c r="S21">
-        <v>0.04063420102469906</v>
+        <v>0.04669486529037645</v>
       </c>
       <c r="T21">
-        <v>0.04063420102469906</v>
+        <v>0.03562884485141341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.3036323943796</v>
+        <v>30.3092165</v>
       </c>
       <c r="H22">
-        <v>30.3036323943796</v>
+        <v>60.618433</v>
       </c>
       <c r="I22">
-        <v>0.125795525344989</v>
+        <v>0.1138398053637809</v>
       </c>
       <c r="J22">
-        <v>0.125795525344989</v>
+        <v>0.07888668520572513</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>3749.866260415383</v>
+        <v>4189.312181799974</v>
       </c>
       <c r="R22">
-        <v>3749.866260415383</v>
+        <v>25135.87309079985</v>
       </c>
       <c r="S22">
-        <v>0.02657086600765093</v>
+        <v>0.02560511827389277</v>
       </c>
       <c r="T22">
-        <v>0.02657086600765093</v>
+        <v>0.01953706859864594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.3036323943796</v>
+        <v>30.3092165</v>
       </c>
       <c r="H23">
-        <v>30.3036323943796</v>
+        <v>60.618433</v>
       </c>
       <c r="I23">
-        <v>0.125795525344989</v>
+        <v>0.1138398053637809</v>
       </c>
       <c r="J23">
-        <v>0.125795525344989</v>
+        <v>0.07888668520572513</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>4199.726474231794</v>
+        <v>4483.167451422444</v>
       </c>
       <c r="R23">
-        <v>4199.726474231794</v>
+        <v>26899.00470853467</v>
       </c>
       <c r="S23">
-        <v>0.02975849314776258</v>
+        <v>0.02740116464321757</v>
       </c>
       <c r="T23">
-        <v>0.02975849314776258</v>
+        <v>0.0209074774656741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.3036323943796</v>
+        <v>30.3092165</v>
       </c>
       <c r="H24">
-        <v>30.3036323943796</v>
+        <v>60.618433</v>
       </c>
       <c r="I24">
-        <v>0.125795525344989</v>
+        <v>0.1138398053637809</v>
       </c>
       <c r="J24">
-        <v>0.125795525344989</v>
+        <v>0.07888668520572513</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>2160.64571032699</v>
+        <v>2251.144838777652</v>
       </c>
       <c r="R24">
-        <v>2160.64571032699</v>
+        <v>13506.86903266591</v>
       </c>
       <c r="S24">
-        <v>0.01530994005443403</v>
+        <v>0.01375901994102506</v>
       </c>
       <c r="T24">
-        <v>0.01530994005443403</v>
+        <v>0.01049832746572494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.3036323943796</v>
+        <v>30.3092165</v>
       </c>
       <c r="H25">
-        <v>30.3036323943796</v>
+        <v>60.618433</v>
       </c>
       <c r="I25">
-        <v>0.125795525344989</v>
+        <v>0.1138398053637809</v>
       </c>
       <c r="J25">
-        <v>0.125795525344989</v>
+        <v>0.07888668520572513</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>2570.56081749747</v>
+        <v>2571.947780213469</v>
       </c>
       <c r="R25">
-        <v>2570.56081749747</v>
+        <v>15431.68668128081</v>
       </c>
       <c r="S25">
-        <v>0.01821452347974589</v>
+        <v>0.01571977075204423</v>
       </c>
       <c r="T25">
-        <v>0.01821452347974589</v>
+        <v>0.01199440815904439</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.3036323943796</v>
+        <v>30.3092165</v>
       </c>
       <c r="H26">
-        <v>30.3036323943796</v>
+        <v>60.618433</v>
       </c>
       <c r="I26">
-        <v>0.125795525344989</v>
+        <v>0.1138398053637809</v>
       </c>
       <c r="J26">
-        <v>0.125795525344989</v>
+        <v>0.07888668520572513</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>5072.344201748706</v>
+        <v>5130.019642454175</v>
       </c>
       <c r="R26">
-        <v>5072.344201748706</v>
+        <v>20520.0785698167</v>
       </c>
       <c r="S26">
-        <v>0.03594170265539561</v>
+        <v>0.03135473175360127</v>
       </c>
       <c r="T26">
-        <v>0.03594170265539561</v>
+        <v>0.01594940351663576</v>
       </c>
     </row>
   </sheetData>
